--- a/mover/src/main/resources/items.xlsx
+++ b/mover/src/main/resources/items.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcfoton/dev/projects/tomove/tomove/model/mover/src/main/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="26100" windowHeight="17140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="26100" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет переезда" sheetId="1" r:id="rId1"/>
     <sheet name="Расчет единичной перевозки" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +25,7 @@
     <author>Пользователь Microsoft Office</author>
   </authors>
   <commentList>
-    <comment ref="F36" authorId="0" shapeId="0">
+    <comment ref="F36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="133">
   <si>
     <t>Холодильник сай бай сайт</t>
   </si>
@@ -449,12 +444,15 @@
   </si>
   <si>
     <t>with mirror</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -995,12 +993,40 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1267,7 +1293,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1277,23 +1303,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36"/>
       <c r="B1" s="11" t="s">
         <v>29</v>
@@ -1314,7 +1340,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>99</v>
       </c>
@@ -1337,7 +1363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>99</v>
       </c>
@@ -1360,7 +1386,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>99</v>
       </c>
@@ -1383,7 +1409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>99</v>
       </c>
@@ -1406,7 +1432,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>99</v>
       </c>
@@ -1429,7 +1455,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>99</v>
       </c>
@@ -1452,7 +1478,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>99</v>
       </c>
@@ -1475,7 +1501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>99</v>
       </c>
@@ -1494,7 +1520,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>99</v>
       </c>
@@ -1513,7 +1539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>99</v>
       </c>
@@ -1532,7 +1558,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>99</v>
       </c>
@@ -1551,7 +1577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
         <v>99</v>
       </c>
@@ -1574,7 +1600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
         <v>99</v>
       </c>
@@ -1593,7 +1619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
         <v>100</v>
       </c>
@@ -1616,7 +1642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
         <v>100</v>
       </c>
@@ -1639,7 +1665,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
         <v>100</v>
       </c>
@@ -1658,7 +1684,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
         <v>100</v>
       </c>
@@ -1681,7 +1707,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
         <v>100</v>
       </c>
@@ -1704,7 +1730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
         <v>100</v>
       </c>
@@ -1723,7 +1749,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
         <v>100</v>
       </c>
@@ -1742,7 +1768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>100</v>
       </c>
@@ -1761,7 +1787,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
         <v>100</v>
       </c>
@@ -1784,7 +1810,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
         <v>100</v>
       </c>
@@ -1807,7 +1833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
         <v>100</v>
       </c>
@@ -1830,7 +1856,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
         <v>100</v>
       </c>
@@ -1853,7 +1879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
         <v>101</v>
       </c>
@@ -1872,7 +1898,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
         <v>101</v>
       </c>
@@ -1891,7 +1917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
         <v>101</v>
       </c>
@@ -1910,7 +1936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38" t="s">
         <v>124</v>
       </c>
@@ -1920,7 +1946,9 @@
       <c r="C30" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="E30" s="17" t="s">
         <v>126</v>
       </c>
@@ -1931,7 +1959,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="s">
         <v>124</v>
       </c>
@@ -1941,7 +1969,9 @@
       <c r="C31" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="E31" s="15" t="s">
         <v>127</v>
       </c>
@@ -1952,7 +1982,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>124</v>
       </c>
@@ -1962,7 +1992,9 @@
       <c r="C32" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="E32" s="15" t="s">
         <v>128</v>
       </c>
@@ -1973,7 +2005,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="s">
         <v>124</v>
       </c>
@@ -1983,7 +2015,9 @@
       <c r="C33" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="E33" s="15" t="s">
         <v>129</v>
       </c>
@@ -1994,7 +2028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="38" t="s">
         <v>124</v>
       </c>
@@ -2004,10 +2038,8 @@
       <c r="C34" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15" t="s">
-        <v>81</v>
-      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="28" t="s">
         <v>23</v>
       </c>
@@ -2015,7 +2047,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="38" t="s">
         <v>124</v>
       </c>
@@ -2036,7 +2068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="s">
         <v>124</v>
       </c>
@@ -2057,7 +2089,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="s">
         <v>124</v>
       </c>
@@ -2078,7 +2110,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>124</v>
       </c>
@@ -2099,7 +2131,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="38" t="s">
         <v>124</v>
       </c>
@@ -2120,7 +2152,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>124</v>
       </c>
@@ -2141,7 +2173,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="38" t="s">
         <v>124</v>
       </c>
@@ -2162,7 +2194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="s">
         <v>124</v>
       </c>
@@ -2183,7 +2215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="38" t="s">
         <v>124</v>
       </c>
@@ -2204,7 +2236,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
         <v>124</v>
       </c>
@@ -2225,7 +2257,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
         <v>124</v>
       </c>
@@ -2246,7 +2278,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
         <v>124</v>
       </c>
@@ -2267,7 +2299,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
         <v>124</v>
       </c>
@@ -2288,7 +2320,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
         <v>124</v>
       </c>
@@ -2309,7 +2341,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
         <v>124</v>
       </c>
@@ -2330,7 +2362,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
         <v>124</v>
       </c>
@@ -2346,7 +2378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
         <v>124</v>
       </c>
@@ -2379,12 +2411,12 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>87</v>
       </c>
@@ -2404,7 +2436,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E4">
         <f>5000*22</f>
         <v>110000</v>
@@ -2428,7 +2460,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>89</v>
       </c>
@@ -2448,7 +2480,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>89</v>
       </c>
